--- a/data/pca/factorExposure/factorExposure_2010-02-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01695984987849965</v>
+        <v>0.01701828011405175</v>
       </c>
       <c r="C2">
-        <v>-8.210474655263824e-05</v>
+        <v>-0.0009542929573783509</v>
       </c>
       <c r="D2">
-        <v>-0.005930770077442384</v>
+        <v>-0.007346736215946864</v>
       </c>
       <c r="E2">
-        <v>0.02188416002480658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.000255736457481958</v>
+      </c>
+      <c r="F2">
+        <v>-0.009199988178515956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1301114654712044</v>
+        <v>0.09339568175404898</v>
       </c>
       <c r="C4">
-        <v>0.0491090051365055</v>
+        <v>-0.01569436924462008</v>
       </c>
       <c r="D4">
-        <v>-0.0396666666014449</v>
+        <v>-0.08409371654447312</v>
       </c>
       <c r="E4">
-        <v>-0.002965778473594952</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02997651207358487</v>
+      </c>
+      <c r="F4">
+        <v>0.02872634091200016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1146931725868167</v>
+        <v>0.1564234838232738</v>
       </c>
       <c r="C6">
-        <v>-0.02227843758843086</v>
+        <v>-0.0246499398419797</v>
       </c>
       <c r="D6">
-        <v>-0.008310891478642455</v>
+        <v>0.02257195331373392</v>
       </c>
       <c r="E6">
-        <v>0.01755008056467384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01127152084059963</v>
+      </c>
+      <c r="F6">
+        <v>0.05201225257714408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07752126088561619</v>
+        <v>0.05949424131575895</v>
       </c>
       <c r="C7">
-        <v>0.02609555573656866</v>
+        <v>0.001022216447468557</v>
       </c>
       <c r="D7">
-        <v>-0.05210377807841754</v>
+        <v>-0.05239215797732211</v>
       </c>
       <c r="E7">
-        <v>0.04136819536280458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01334889018558174</v>
+      </c>
+      <c r="F7">
+        <v>0.04348354677645279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05321450009498608</v>
+        <v>0.05810379047957952</v>
       </c>
       <c r="C8">
-        <v>0.007659406802570425</v>
+        <v>0.01330586716753938</v>
       </c>
       <c r="D8">
-        <v>-0.02145759528190323</v>
+        <v>-0.03083775622117113</v>
       </c>
       <c r="E8">
-        <v>0.02268359561059014</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01568367654224869</v>
+      </c>
+      <c r="F8">
+        <v>-0.03094656094983975</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.1004878755057282</v>
+        <v>0.07145559267230728</v>
       </c>
       <c r="C9">
-        <v>0.05013538176152373</v>
+        <v>-0.01163918954768598</v>
       </c>
       <c r="D9">
-        <v>-0.01661544975102607</v>
+        <v>-0.08460772416591052</v>
       </c>
       <c r="E9">
-        <v>0.01243154896557895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0241869719051768</v>
+      </c>
+      <c r="F9">
+        <v>0.04873684727050503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06436171801228144</v>
+        <v>0.09535377362252241</v>
       </c>
       <c r="C10">
-        <v>-0.1781441273035742</v>
+        <v>-0.01826955414549862</v>
       </c>
       <c r="D10">
-        <v>0.07000237991353259</v>
+        <v>0.1702265957513751</v>
       </c>
       <c r="E10">
-        <v>0.02167465929991624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03843744225532729</v>
+      </c>
+      <c r="F10">
+        <v>-0.05762080640352527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09881342532119644</v>
+        <v>0.087775348136645</v>
       </c>
       <c r="C11">
-        <v>0.04889238635597801</v>
+        <v>-0.01142069972052758</v>
       </c>
       <c r="D11">
-        <v>-0.05762236360207288</v>
+        <v>-0.1167415235324535</v>
       </c>
       <c r="E11">
-        <v>0.04607907079666573</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04746621568996957</v>
+      </c>
+      <c r="F11">
+        <v>0.01997678299708238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1024459937507422</v>
+        <v>0.09251692009267268</v>
       </c>
       <c r="C12">
-        <v>0.05543534667197027</v>
+        <v>-0.00886377850387913</v>
       </c>
       <c r="D12">
-        <v>-0.06519232810102397</v>
+        <v>-0.1277990795034069</v>
       </c>
       <c r="E12">
-        <v>0.04200273794684237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04801771083201739</v>
+      </c>
+      <c r="F12">
+        <v>0.01837108474171472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04378951687433846</v>
+        <v>0.04359254273050991</v>
       </c>
       <c r="C13">
-        <v>0.02375718638126325</v>
+        <v>-0.003991865848259917</v>
       </c>
       <c r="D13">
-        <v>0.01876270213165075</v>
+        <v>-0.04861132359336225</v>
       </c>
       <c r="E13">
-        <v>-0.0006386375048321427</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01261013490871232</v>
+      </c>
+      <c r="F13">
+        <v>0.00807222382344557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02746776009456455</v>
+        <v>0.02270291207404571</v>
       </c>
       <c r="C14">
-        <v>0.004147123402155147</v>
+        <v>-0.01414602443148335</v>
       </c>
       <c r="D14">
-        <v>-0.005700020255231187</v>
+        <v>-0.03219194192802913</v>
       </c>
       <c r="E14">
-        <v>0.004406811541574069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01758912481395038</v>
+      </c>
+      <c r="F14">
+        <v>0.01774875265856105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03177569931626919</v>
+        <v>0.03106479354035219</v>
       </c>
       <c r="C15">
-        <v>0.02633348767735188</v>
+        <v>-0.005229961882088388</v>
       </c>
       <c r="D15">
-        <v>-0.002226239871625659</v>
+        <v>-0.04495667494507597</v>
       </c>
       <c r="E15">
-        <v>0.01925130068991202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007404344660380493</v>
+      </c>
+      <c r="F15">
+        <v>0.02802839134667474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1023956996707331</v>
+        <v>0.07297844546412383</v>
       </c>
       <c r="C16">
-        <v>0.04130421340712305</v>
+        <v>-0.002853420725730533</v>
       </c>
       <c r="D16">
-        <v>-0.06651962997798981</v>
+        <v>-0.1238470265572826</v>
       </c>
       <c r="E16">
-        <v>0.04912826041368551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06320931250227564</v>
+      </c>
+      <c r="F16">
+        <v>0.02336045040930141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02634522468194292</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003999660679008993</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02176239603944072</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004372152989364297</v>
+      </c>
+      <c r="F18">
+        <v>-0.01555320229929507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05505000601497797</v>
+        <v>0.06011922703632677</v>
       </c>
       <c r="C20">
-        <v>0.01750172998301816</v>
+        <v>-0.0004229115872047761</v>
       </c>
       <c r="D20">
-        <v>-0.04462338813877922</v>
+        <v>-0.07689832775136379</v>
       </c>
       <c r="E20">
-        <v>-0.005002406871492385</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05568519684861571</v>
+      </c>
+      <c r="F20">
+        <v>0.02395713814739585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02211128916057791</v>
+        <v>0.03882354261856229</v>
       </c>
       <c r="C21">
-        <v>-0.005378187783117047</v>
+        <v>-0.006664585214157973</v>
       </c>
       <c r="D21">
-        <v>-0.001911578646775404</v>
+        <v>-0.03529325205497442</v>
       </c>
       <c r="E21">
-        <v>-0.03164579508713346</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007758421389987406</v>
+      </c>
+      <c r="F21">
+        <v>-0.02204453023090074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02937772272900084</v>
+        <v>0.04405468890356633</v>
       </c>
       <c r="C22">
-        <v>-0.0365608612459036</v>
+        <v>-0.001218719440310908</v>
       </c>
       <c r="D22">
-        <v>0.03726825149133241</v>
+        <v>-0.001506721054045715</v>
       </c>
       <c r="E22">
-        <v>0.03991166090348468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02805464222486622</v>
+      </c>
+      <c r="F22">
+        <v>-0.01209667540532687</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02947983435565264</v>
+        <v>0.04408837314821441</v>
       </c>
       <c r="C23">
-        <v>-0.03649081790442903</v>
+        <v>-0.001239549590914143</v>
       </c>
       <c r="D23">
-        <v>0.03679206161564831</v>
+        <v>-0.001598133527278439</v>
       </c>
       <c r="E23">
-        <v>0.04173925068151143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02836426822930821</v>
+      </c>
+      <c r="F23">
+        <v>-0.01155937357042776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1045777437696594</v>
+        <v>0.07956070022202465</v>
       </c>
       <c r="C24">
-        <v>0.04125726167354309</v>
+        <v>-0.002991689930721133</v>
       </c>
       <c r="D24">
-        <v>-0.06277721430727227</v>
+        <v>-0.1199989774538266</v>
       </c>
       <c r="E24">
-        <v>0.04027137476265419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05065095316456446</v>
+      </c>
+      <c r="F24">
+        <v>0.02253629534998322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1074037011924831</v>
+        <v>0.08497385324283868</v>
       </c>
       <c r="C25">
-        <v>0.03753009118775751</v>
+        <v>-0.005231240703323065</v>
       </c>
       <c r="D25">
-        <v>-0.05904595734119666</v>
+        <v>-0.1088187387459593</v>
       </c>
       <c r="E25">
-        <v>0.04847250540894164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03328455509861433</v>
+      </c>
+      <c r="F25">
+        <v>0.02585773513738326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04198054049222769</v>
+        <v>0.05570069678549271</v>
       </c>
       <c r="C26">
-        <v>-0.01557218599904904</v>
+        <v>-0.01437630707900202</v>
       </c>
       <c r="D26">
-        <v>-0.02111571230375828</v>
+        <v>-0.04217434236878069</v>
       </c>
       <c r="E26">
-        <v>0.007614211275836821</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02583347713992083</v>
+      </c>
+      <c r="F26">
+        <v>-0.01093941845758702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.057339489995756</v>
+        <v>0.1429995968970856</v>
       </c>
       <c r="C28">
-        <v>-0.2576478434330232</v>
+        <v>-0.01722268127402516</v>
       </c>
       <c r="D28">
-        <v>0.1737097020057777</v>
+        <v>0.265339391152608</v>
       </c>
       <c r="E28">
-        <v>0.05213274174809149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06885293041824365</v>
+      </c>
+      <c r="F28">
+        <v>0.01922491140421038</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02927995382711391</v>
+        <v>0.02689425613473428</v>
       </c>
       <c r="C29">
-        <v>0.008015309719461981</v>
+        <v>-0.008377469489490624</v>
       </c>
       <c r="D29">
-        <v>0.003568803502412328</v>
+        <v>-0.03142683241396622</v>
       </c>
       <c r="E29">
-        <v>0.007034855044685265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01139658171480819</v>
+      </c>
+      <c r="F29">
+        <v>-0.01191927807621047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1238585554346796</v>
+        <v>0.06144407547679553</v>
       </c>
       <c r="C30">
-        <v>0.06566686481195465</v>
+        <v>-0.004488045438047378</v>
       </c>
       <c r="D30">
-        <v>-0.03386883398575762</v>
+        <v>-0.08623489108077176</v>
       </c>
       <c r="E30">
-        <v>0.01711805786857066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02376096958517316</v>
+      </c>
+      <c r="F30">
+        <v>0.09243283178929533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03239684446662316</v>
+        <v>0.04899198194694871</v>
       </c>
       <c r="C31">
-        <v>0.01317194190847396</v>
+        <v>-0.01501107663891424</v>
       </c>
       <c r="D31">
-        <v>-0.02658539393054902</v>
+        <v>-0.02636478451746977</v>
       </c>
       <c r="E31">
-        <v>0.01600775585122574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02729690988189046</v>
+      </c>
+      <c r="F31">
+        <v>-0.005877394682698334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06369256212779204</v>
+        <v>0.04827723159239639</v>
       </c>
       <c r="C32">
-        <v>-0.0003082662248661337</v>
+        <v>0.0007113475778819835</v>
       </c>
       <c r="D32">
-        <v>-0.03115048159250847</v>
+        <v>-0.03398605485834985</v>
       </c>
       <c r="E32">
-        <v>-0.0001870229214523418</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03064065466202474</v>
+      </c>
+      <c r="F32">
+        <v>0.00632571107316202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1096336895424496</v>
+        <v>0.08965736150334137</v>
       </c>
       <c r="C33">
-        <v>0.04674729766795976</v>
+        <v>-0.008466533852463367</v>
       </c>
       <c r="D33">
-        <v>-0.03052053806698627</v>
+        <v>-0.09789728042462689</v>
       </c>
       <c r="E33">
-        <v>0.07635350754915846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04606437800196697</v>
+      </c>
+      <c r="F33">
+        <v>0.03841207709652194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.09123928984778527</v>
+        <v>0.06766387182808875</v>
       </c>
       <c r="C34">
-        <v>0.02460325901663844</v>
+        <v>-0.01171477184244523</v>
       </c>
       <c r="D34">
-        <v>-0.0512780260136094</v>
+        <v>-0.1044133043270916</v>
       </c>
       <c r="E34">
-        <v>0.04078774601361798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03521241857273482</v>
+      </c>
+      <c r="F34">
+        <v>0.03527020366691624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01502192259238891</v>
+        <v>0.02452301210234976</v>
       </c>
       <c r="C35">
-        <v>0.01048948286163034</v>
+        <v>-0.002328786638684409</v>
       </c>
       <c r="D35">
-        <v>0.005239835148763286</v>
+        <v>-0.01241176786889307</v>
       </c>
       <c r="E35">
-        <v>0.005048759065808373</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01066545579142555</v>
+      </c>
+      <c r="F35">
+        <v>0.006169982289529552</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02632362164689336</v>
+        <v>0.02472182615537275</v>
       </c>
       <c r="C36">
-        <v>0.01674070868815238</v>
+        <v>-0.00738504384723811</v>
       </c>
       <c r="D36">
-        <v>-0.0003953471481446571</v>
+        <v>-0.03925320205083364</v>
       </c>
       <c r="E36">
-        <v>0.0003898450102046227</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01675309373813503</v>
+      </c>
+      <c r="F36">
+        <v>0.0141036346825199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.006050944395150831</v>
+        <v>0.001493271799718117</v>
       </c>
       <c r="C38">
-        <v>0.0001291946698153385</v>
+        <v>-0.0002210774329188024</v>
       </c>
       <c r="D38">
-        <v>0.0003994692875523097</v>
+        <v>-0.0006889610217972891</v>
       </c>
       <c r="E38">
-        <v>0.0005702230942322279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00110249973709219</v>
+      </c>
+      <c r="F38">
+        <v>-0.001145970573025699</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1685114171944814</v>
+        <v>0.1071204079597844</v>
       </c>
       <c r="C39">
-        <v>0.08970731361087905</v>
+        <v>-0.01666626849149958</v>
       </c>
       <c r="D39">
-        <v>-0.09445968879592934</v>
+        <v>-0.1536909825452885</v>
       </c>
       <c r="E39">
-        <v>0.07357620276727227</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06079458816978695</v>
+      </c>
+      <c r="F39">
+        <v>0.02318004097077957</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008203248152485732</v>
+        <v>0.03744479095888763</v>
       </c>
       <c r="C40">
-        <v>-0.001334923888549041</v>
+        <v>-0.007281876821271932</v>
       </c>
       <c r="D40">
-        <v>-0.009184172221576508</v>
+        <v>-0.03328892529817721</v>
       </c>
       <c r="E40">
-        <v>-0.01782393765249687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002642625489299772</v>
+      </c>
+      <c r="F40">
+        <v>-0.01374242811320124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01669028806987786</v>
+        <v>0.02658952881892656</v>
       </c>
       <c r="C41">
-        <v>-0.02449328533146879</v>
+        <v>-0.006498503750382574</v>
       </c>
       <c r="D41">
-        <v>-0.01603020383581692</v>
+        <v>-0.01099607359333204</v>
       </c>
       <c r="E41">
-        <v>0.005892012607992922</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01214154471461319</v>
+      </c>
+      <c r="F41">
+        <v>-0.009450219554933033</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02633256473812788</v>
+        <v>0.04014233523616136</v>
       </c>
       <c r="C43">
-        <v>-0.01823747178778661</v>
+        <v>-0.006601552205271417</v>
       </c>
       <c r="D43">
-        <v>-0.02935428013615088</v>
+        <v>-0.02052178948760656</v>
       </c>
       <c r="E43">
-        <v>0.02640843610853476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02388131968136088</v>
+      </c>
+      <c r="F43">
+        <v>-0.0142084898027494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1390342341179044</v>
+        <v>0.0765121500038695</v>
       </c>
       <c r="C44">
-        <v>0.05979419289754314</v>
+        <v>-0.0212244318777516</v>
       </c>
       <c r="D44">
-        <v>-0.03756649458221557</v>
+        <v>-0.09749245610570036</v>
       </c>
       <c r="E44">
-        <v>0.0380867919477902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07373398138775639</v>
+      </c>
+      <c r="F44">
+        <v>0.1717886601461796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01593233901016339</v>
+        <v>0.0235429481486348</v>
       </c>
       <c r="C46">
-        <v>-0.01747225416134837</v>
+        <v>-0.003600692163728702</v>
       </c>
       <c r="D46">
-        <v>-0.007155062006712602</v>
+        <v>-0.01206406214881335</v>
       </c>
       <c r="E46">
-        <v>0.03372362583912394</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02238785840496616</v>
+      </c>
+      <c r="F46">
+        <v>0.0006524170699509269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04138679185612511</v>
+        <v>0.05107547211767204</v>
       </c>
       <c r="C47">
-        <v>-0.005502660732334245</v>
+        <v>-0.003280750867506533</v>
       </c>
       <c r="D47">
-        <v>-0.0142368545441061</v>
+        <v>-0.01317031551738179</v>
       </c>
       <c r="E47">
-        <v>0.001036894234169332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02249281002793571</v>
+      </c>
+      <c r="F47">
+        <v>-0.03989724410543875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04331155843169002</v>
+        <v>0.04777519217143519</v>
       </c>
       <c r="C48">
-        <v>0.01829735928068127</v>
+        <v>-0.00260743426199791</v>
       </c>
       <c r="D48">
-        <v>0.0005444084204200974</v>
+        <v>-0.05090520044555671</v>
       </c>
       <c r="E48">
-        <v>0.006020209113905009</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005099142359141633</v>
+      </c>
+      <c r="F48">
+        <v>0.004912034422280577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2204842722835113</v>
+        <v>0.2025539075852705</v>
       </c>
       <c r="C49">
-        <v>-0.0477256486985385</v>
+        <v>-0.01765568130486769</v>
       </c>
       <c r="D49">
-        <v>-0.04510863738019359</v>
+        <v>0.01106395904223119</v>
       </c>
       <c r="E49">
-        <v>-0.006832742929993917</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03272683536828409</v>
+      </c>
+      <c r="F49">
+        <v>0.02899515046960171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04088627470821476</v>
+        <v>0.04883807279613882</v>
       </c>
       <c r="C50">
-        <v>0.008673511378174981</v>
+        <v>-0.01102256115451354</v>
       </c>
       <c r="D50">
-        <v>-0.03440346872917683</v>
+        <v>-0.02592980539571577</v>
       </c>
       <c r="E50">
-        <v>0.01018197600518292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02934565082410068</v>
+      </c>
+      <c r="F50">
+        <v>0.006778966212988165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008121620433366889</v>
+        <v>0.002135569417194042</v>
       </c>
       <c r="C51">
-        <v>-0.01254900266368232</v>
+        <v>-0.0005415594589491956</v>
       </c>
       <c r="D51">
-        <v>0.007775108415308168</v>
+        <v>0.002235872255964939</v>
       </c>
       <c r="E51">
-        <v>0.01579137623091584</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-3.181229763087504e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.003866960636684523</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1367653903653724</v>
+        <v>0.1450360534789157</v>
       </c>
       <c r="C52">
-        <v>0.0709302400204687</v>
+        <v>-0.01394161354929235</v>
       </c>
       <c r="D52">
-        <v>-0.01752513449400547</v>
+        <v>-0.04921311523325618</v>
       </c>
       <c r="E52">
-        <v>-0.01159015317080414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02423366937148869</v>
+      </c>
+      <c r="F52">
+        <v>0.03889332760652919</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1519083167218591</v>
+        <v>0.1736374814841208</v>
       </c>
       <c r="C53">
-        <v>-0.001432596837675288</v>
+        <v>-0.01688404583263441</v>
       </c>
       <c r="D53">
-        <v>0.008469192912434871</v>
+        <v>-0.008464513706646878</v>
       </c>
       <c r="E53">
-        <v>-0.02292259481722684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.0351085035399144</v>
+      </c>
+      <c r="F53">
+        <v>0.06971172648266438</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04863489251652365</v>
+        <v>0.02256547665918235</v>
       </c>
       <c r="C54">
-        <v>-0.0002916045086380434</v>
+        <v>-0.01226689844895641</v>
       </c>
       <c r="D54">
-        <v>-0.01115583684598605</v>
+        <v>-0.03270446177977322</v>
       </c>
       <c r="E54">
-        <v>0.01017648869878154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01488417706032836</v>
+      </c>
+      <c r="F54">
+        <v>-0.00401297273214438</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08950323640889835</v>
+        <v>0.1143956482066595</v>
       </c>
       <c r="C55">
-        <v>0.0247163477041804</v>
+        <v>-0.01544240879396469</v>
       </c>
       <c r="D55">
-        <v>0.01064772232385972</v>
+        <v>-0.01098705363049477</v>
       </c>
       <c r="E55">
-        <v>0.03283577251202831</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03123070062622613</v>
+      </c>
+      <c r="F55">
+        <v>0.04484191940569843</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1545317001881268</v>
+        <v>0.1774026663929316</v>
       </c>
       <c r="C56">
-        <v>0.004635438365998598</v>
+        <v>-0.01432530685429314</v>
       </c>
       <c r="D56">
-        <v>-0.0141489258522546</v>
+        <v>-0.005784950709545168</v>
       </c>
       <c r="E56">
-        <v>0.01154592371407583</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04086557863271255</v>
+      </c>
+      <c r="F56">
+        <v>0.04783779032479964</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04854449164488375</v>
+        <v>0.04604380193391735</v>
       </c>
       <c r="C58">
-        <v>-0.0002292702928192705</v>
+        <v>-0.001272196553109786</v>
       </c>
       <c r="D58">
-        <v>-0.01447387986246721</v>
+        <v>-0.06846039565745356</v>
       </c>
       <c r="E58">
-        <v>-0.01259283366953304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02496826124233841</v>
+      </c>
+      <c r="F58">
+        <v>-0.04138246693242055</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1257952294244703</v>
+        <v>0.1720022479806227</v>
       </c>
       <c r="C59">
-        <v>-0.2417059465154203</v>
+        <v>-0.01775270634530464</v>
       </c>
       <c r="D59">
-        <v>0.154626941454536</v>
+        <v>0.2225072901401883</v>
       </c>
       <c r="E59">
-        <v>0.05935213409395649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04773022772214958</v>
+      </c>
+      <c r="F59">
+        <v>-0.03189936735995789</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2771852473188876</v>
+        <v>0.2348725526978339</v>
       </c>
       <c r="C60">
-        <v>0.03944586230038963</v>
+        <v>0.004233192512625109</v>
       </c>
       <c r="D60">
-        <v>-0.02860002153619235</v>
+        <v>-0.04350222911876285</v>
       </c>
       <c r="E60">
-        <v>-0.06833397983794406</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01087970261374035</v>
+      </c>
+      <c r="F60">
+        <v>-0.02321174889332372</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.127278415010923</v>
+        <v>0.0830555345100442</v>
       </c>
       <c r="C61">
-        <v>0.05963173046220674</v>
+        <v>-0.01270093646331559</v>
       </c>
       <c r="D61">
-        <v>-0.04280118789461016</v>
+        <v>-0.1160930759787606</v>
       </c>
       <c r="E61">
-        <v>0.05446787162499968</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04031046162593674</v>
+      </c>
+      <c r="F61">
+        <v>0.01023656476145875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.165379602486605</v>
+        <v>0.1697152225239121</v>
       </c>
       <c r="C62">
-        <v>0.01251890223433665</v>
+        <v>-0.01790454466142131</v>
       </c>
       <c r="D62">
-        <v>-0.01248842487842056</v>
+        <v>-0.01054084095049877</v>
       </c>
       <c r="E62">
-        <v>-0.00160158692772289</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03712714880475784</v>
+      </c>
+      <c r="F62">
+        <v>0.029596896267561</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0526026456127694</v>
+        <v>0.04319285851819571</v>
       </c>
       <c r="C63">
-        <v>0.02336234387059145</v>
+        <v>-0.002570221948664684</v>
       </c>
       <c r="D63">
-        <v>-0.007936227209807569</v>
+        <v>-0.05629123999713226</v>
       </c>
       <c r="E63">
-        <v>0.02557152617305904</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02101370068936861</v>
+      </c>
+      <c r="F63">
+        <v>0.007114340208350847</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09978667788843809</v>
+        <v>0.1106564768039576</v>
       </c>
       <c r="C64">
-        <v>0.01540836799035774</v>
+        <v>-0.01113640730404884</v>
       </c>
       <c r="D64">
-        <v>-0.02184704729119687</v>
+        <v>-0.04148460608037129</v>
       </c>
       <c r="E64">
-        <v>0.006754451192291611</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02004221560423422</v>
+      </c>
+      <c r="F64">
+        <v>0.02766282877654775</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1139071546958234</v>
+        <v>0.147772294515846</v>
       </c>
       <c r="C65">
-        <v>-0.0005649817435251425</v>
+        <v>-0.0312875378102327</v>
       </c>
       <c r="D65">
-        <v>0.01060036179830319</v>
+        <v>0.04229951096984041</v>
       </c>
       <c r="E65">
-        <v>-0.006636481694696487</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.001739447727754578</v>
+      </c>
+      <c r="F65">
+        <v>0.04587465827710355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1910277204376011</v>
+        <v>0.1276521769844864</v>
       </c>
       <c r="C66">
-        <v>0.08604306534085503</v>
+        <v>-0.01447718289464323</v>
       </c>
       <c r="D66">
-        <v>-0.1041622679664017</v>
+        <v>-0.1432509219114269</v>
       </c>
       <c r="E66">
-        <v>0.07706881151503311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.06810103127094914</v>
+      </c>
+      <c r="F66">
+        <v>0.02785715030996644</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06903323699919933</v>
+        <v>0.06370984935129287</v>
       </c>
       <c r="C67">
-        <v>0.01996282516757844</v>
+        <v>-0.002823309760483674</v>
       </c>
       <c r="D67">
-        <v>0.002149759866893665</v>
+        <v>-0.05659871717987393</v>
       </c>
       <c r="E67">
-        <v>0.08564351362483821</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01806431381159831</v>
+      </c>
+      <c r="F67">
+        <v>-0.04121269774956916</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05481486889737228</v>
+        <v>0.1171801523774844</v>
       </c>
       <c r="C68">
-        <v>-0.2294466288182559</v>
+        <v>-0.02755480489066299</v>
       </c>
       <c r="D68">
-        <v>0.1519985692977328</v>
+        <v>0.2607475978540978</v>
       </c>
       <c r="E68">
-        <v>0.0380509407050384</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08558527601422712</v>
+      </c>
+      <c r="F68">
+        <v>0.01945983472571928</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03331353553697829</v>
+        <v>0.03911897651729444</v>
       </c>
       <c r="C69">
-        <v>0.0006206643762570598</v>
+        <v>-0.0008756575928818596</v>
       </c>
       <c r="D69">
-        <v>0.01501142744398208</v>
+        <v>-0.008150171016734237</v>
       </c>
       <c r="E69">
-        <v>0.02490037703740151</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02366135426417822</v>
+      </c>
+      <c r="F69">
+        <v>-0.006316625600182169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.02673316749590883</v>
+        <v>0.0625171025713465</v>
       </c>
       <c r="C70">
-        <v>-0.001709143473603557</v>
+        <v>0.02868574043703455</v>
       </c>
       <c r="D70">
-        <v>0.02849329580441064</v>
+        <v>-0.0294723090062674</v>
       </c>
       <c r="E70">
-        <v>0.03824005181395602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04820700340545636</v>
+      </c>
+      <c r="F70">
+        <v>-0.2342410743896267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.0638083902378937</v>
+        <v>0.1366993781131067</v>
       </c>
       <c r="C71">
-        <v>-0.2473034884788269</v>
+        <v>-0.03204940287371864</v>
       </c>
       <c r="D71">
-        <v>0.1698217003718906</v>
+        <v>0.2749057981493639</v>
       </c>
       <c r="E71">
-        <v>0.04976195976870349</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09532279932950653</v>
+      </c>
+      <c r="F71">
+        <v>0.02409651249938199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1332680807849639</v>
+        <v>0.141625574365562</v>
       </c>
       <c r="C72">
-        <v>-0.03602340321968806</v>
+        <v>-0.02500445325366896</v>
       </c>
       <c r="D72">
-        <v>-0.002167184427883872</v>
+        <v>-0.00133702692452792</v>
       </c>
       <c r="E72">
-        <v>0.02077264142036566</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04274407097188201</v>
+      </c>
+      <c r="F72">
+        <v>0.03039027492945552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2190445029332426</v>
+        <v>0.201449128966403</v>
       </c>
       <c r="C73">
-        <v>-0.03761201689567033</v>
+        <v>-0.01186750986375699</v>
       </c>
       <c r="D73">
-        <v>-0.002609755458211082</v>
+        <v>-0.01507991771261968</v>
       </c>
       <c r="E73">
-        <v>0.04417699465412519</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06569237956435051</v>
+      </c>
+      <c r="F73">
+        <v>0.02511208327356067</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1147922537569046</v>
+        <v>0.09437500776155645</v>
       </c>
       <c r="C74">
-        <v>0.006753732364263861</v>
+        <v>-0.01221469800412204</v>
       </c>
       <c r="D74">
-        <v>-0.03251691845025191</v>
+        <v>-0.01975747461184775</v>
       </c>
       <c r="E74">
-        <v>0.01340992038801261</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04860492502651859</v>
+      </c>
+      <c r="F74">
+        <v>0.05100757303568911</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1284825006896488</v>
+        <v>0.1289340288432902</v>
       </c>
       <c r="C75">
-        <v>0.01444055381706921</v>
+        <v>-0.02661402311131724</v>
       </c>
       <c r="D75">
-        <v>-0.03955333719781223</v>
+        <v>-0.03296423402458382</v>
       </c>
       <c r="E75">
-        <v>0.005409099960485265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06078051983562101</v>
+      </c>
+      <c r="F75">
+        <v>0.01450633956513095</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01249324390206254</v>
+        <v>0.002888547176508705</v>
       </c>
       <c r="C76">
-        <v>-0.01225401604935754</v>
+        <v>-0.0007177164993109963</v>
       </c>
       <c r="D76">
-        <v>0.007283119749626227</v>
+        <v>0.002042291231868093</v>
       </c>
       <c r="E76">
-        <v>0.01168744034568617</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004720577436813248</v>
+      </c>
+      <c r="F76">
+        <v>0.003685944650577908</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09433553573201582</v>
+        <v>0.08031621983107795</v>
       </c>
       <c r="C77">
-        <v>0.08569712386149121</v>
+        <v>-0.008716601135582185</v>
       </c>
       <c r="D77">
-        <v>-0.06893516057217111</v>
+        <v>-0.1186201132019135</v>
       </c>
       <c r="E77">
-        <v>-0.01841561864045571</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04012978181996173</v>
+      </c>
+      <c r="F77">
+        <v>0.03223301222465137</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1049116062688205</v>
+        <v>0.1031337429967673</v>
       </c>
       <c r="C78">
-        <v>-0.02657899459764317</v>
+        <v>-0.03973424131435454</v>
       </c>
       <c r="D78">
-        <v>-0.1271128144757338</v>
+        <v>-0.1160400158309134</v>
       </c>
       <c r="E78">
-        <v>0.1842921181210325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07971176855761208</v>
+      </c>
+      <c r="F78">
+        <v>0.05656545227241427</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1410226119339633</v>
+        <v>0.1638247613427331</v>
       </c>
       <c r="C79">
-        <v>0.000534734926748467</v>
+        <v>-0.02062120308881683</v>
       </c>
       <c r="D79">
-        <v>-0.05293583349174969</v>
+        <v>-0.01943630679143573</v>
       </c>
       <c r="E79">
-        <v>-0.01311522473818444</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05001646290760401</v>
+      </c>
+      <c r="F79">
+        <v>0.006423997036071728</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08650363030669635</v>
+        <v>0.08114252369532732</v>
       </c>
       <c r="C80">
-        <v>0.06106426494114547</v>
+        <v>0.000816691477988808</v>
       </c>
       <c r="D80">
-        <v>-0.02050611386151563</v>
+        <v>-0.05815636725281263</v>
       </c>
       <c r="E80">
-        <v>0.0564420669285287</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03581379906145941</v>
+      </c>
+      <c r="F80">
+        <v>-0.02803550049818567</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1507165310093369</v>
+        <v>0.1233839381678096</v>
       </c>
       <c r="C81">
-        <v>0.02644835308985897</v>
+        <v>-0.03041525938645383</v>
       </c>
       <c r="D81">
-        <v>-0.05455609647177306</v>
+        <v>-0.01696050532099779</v>
       </c>
       <c r="E81">
-        <v>0.02127012253426942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06044097250492816</v>
+      </c>
+      <c r="F81">
+        <v>0.01061812164441094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1766963860889567</v>
+        <v>0.164039653607143</v>
       </c>
       <c r="C82">
-        <v>0.04064696829072949</v>
+        <v>-0.02264805661934945</v>
       </c>
       <c r="D82">
-        <v>-0.02122097336627667</v>
+        <v>-0.009010791343830423</v>
       </c>
       <c r="E82">
-        <v>0.0175193034702881</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.03381195140507888</v>
+      </c>
+      <c r="F82">
+        <v>0.07233358530057088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08022439354920886</v>
+        <v>0.06191418250760169</v>
       </c>
       <c r="C83">
-        <v>0.02108542507825852</v>
+        <v>-0.003135182573598281</v>
       </c>
       <c r="D83">
-        <v>-0.004717401202474525</v>
+        <v>-0.04950013846471265</v>
       </c>
       <c r="E83">
-        <v>-0.07371666370764769</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005610928472573467</v>
+      </c>
+      <c r="F83">
+        <v>-0.04016718612125116</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07146431938474068</v>
+        <v>0.05861482172890514</v>
       </c>
       <c r="C84">
-        <v>0.01135592575788569</v>
+        <v>-0.01075240414501941</v>
       </c>
       <c r="D84">
-        <v>-0.00630356287558217</v>
+        <v>-0.06642064771394339</v>
       </c>
       <c r="E84">
-        <v>0.001784337789176756</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005348358559335592</v>
+      </c>
+      <c r="F84">
+        <v>0.007163657230606234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1259937238928222</v>
+        <v>0.1383393550914715</v>
       </c>
       <c r="C85">
-        <v>-0.001534878877661969</v>
+        <v>-0.02636811301476464</v>
       </c>
       <c r="D85">
-        <v>-0.01651107872099012</v>
+        <v>-0.01277603477917158</v>
       </c>
       <c r="E85">
-        <v>-0.0005270669350876367</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04106993597453004</v>
+      </c>
+      <c r="F85">
+        <v>0.04520361538786222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1206290446128962</v>
+        <v>0.09540967543704833</v>
       </c>
       <c r="C86">
-        <v>-0.207117594821569</v>
+        <v>0.005444400204342809</v>
       </c>
       <c r="D86">
-        <v>-0.2346407786430879</v>
+        <v>-0.03499037566879572</v>
       </c>
       <c r="E86">
-        <v>-0.8919776146621892</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1643042343027933</v>
+      </c>
+      <c r="F86">
+        <v>-0.8988771526673018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.12112366405648</v>
+        <v>0.09522117220256128</v>
       </c>
       <c r="C87">
-        <v>0.09959214384124102</v>
+        <v>-0.02197835640828584</v>
       </c>
       <c r="D87">
-        <v>0.01619974098935267</v>
+        <v>-0.09285860561779291</v>
       </c>
       <c r="E87">
-        <v>-0.006748155967915388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05395122631042729</v>
+      </c>
+      <c r="F87">
+        <v>0.06726173559243842</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.04773725771592516</v>
+        <v>0.06100375885749452</v>
       </c>
       <c r="C88">
-        <v>0.00986389476736842</v>
+        <v>-0.002360002738465398</v>
       </c>
       <c r="D88">
-        <v>-0.03157036307678875</v>
+        <v>-0.05088902141404285</v>
       </c>
       <c r="E88">
-        <v>0.04038225901534261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02606879001988097</v>
+      </c>
+      <c r="F88">
+        <v>0.008968427168229086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1039014931447794</v>
+        <v>0.1349843162033506</v>
       </c>
       <c r="C89">
-        <v>-0.3138605166402449</v>
+        <v>-0.009968294479604248</v>
       </c>
       <c r="D89">
-        <v>0.2069554533363896</v>
+        <v>0.2531192010481569</v>
       </c>
       <c r="E89">
-        <v>0.03140387867201904</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08954021111712031</v>
+      </c>
+      <c r="F89">
+        <v>0.006055662853089078</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.07291482863538498</v>
+        <v>0.1485302881264202</v>
       </c>
       <c r="C90">
-        <v>-0.2569912269690854</v>
+        <v>-0.02769601005202111</v>
       </c>
       <c r="D90">
-        <v>0.1710011300111764</v>
+        <v>0.2663348881556222</v>
       </c>
       <c r="E90">
-        <v>0.03549439149310674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1095849555200183</v>
+      </c>
+      <c r="F90">
+        <v>0.009637210765210433</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09279436331483717</v>
+        <v>0.1198172682312227</v>
       </c>
       <c r="C91">
-        <v>0.006376007441241215</v>
+        <v>-0.01710783356613642</v>
       </c>
       <c r="D91">
-        <v>-0.02656887879634308</v>
+        <v>0.01012164383057309</v>
       </c>
       <c r="E91">
-        <v>-0.00929786636441777</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05760124789857131</v>
+      </c>
+      <c r="F91">
+        <v>-0.01145986267502685</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.08881343662286936</v>
+        <v>0.1495179179302349</v>
       </c>
       <c r="C92">
-        <v>-0.271356907047466</v>
+        <v>-0.01920499433322779</v>
       </c>
       <c r="D92">
-        <v>0.2024875793740944</v>
+        <v>0.2899663599069858</v>
       </c>
       <c r="E92">
-        <v>0.01596029337872288</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1031525082060857</v>
+      </c>
+      <c r="F92">
+        <v>0.001341650889180381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.071413076317336</v>
+        <v>0.1515618320459664</v>
       </c>
       <c r="C93">
-        <v>-0.282451564763339</v>
+        <v>-0.02382936694819963</v>
       </c>
       <c r="D93">
-        <v>0.187479375698206</v>
+        <v>0.2657928168773243</v>
       </c>
       <c r="E93">
-        <v>0.02796282533761224</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07650621952486077</v>
+      </c>
+      <c r="F93">
+        <v>0.009964823880650274</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1537779411037958</v>
+        <v>0.1318609582773767</v>
       </c>
       <c r="C94">
-        <v>0.01213815268924313</v>
+        <v>-0.02373896483661412</v>
       </c>
       <c r="D94">
-        <v>-0.03827787339649064</v>
+        <v>-0.04426722824968992</v>
       </c>
       <c r="E94">
-        <v>0.06019279928494194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06098966903186453</v>
+      </c>
+      <c r="F94">
+        <v>0.03307633550372446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1221462417105591</v>
+        <v>0.1258432883424009</v>
       </c>
       <c r="C95">
-        <v>0.0248271113271041</v>
+        <v>-0.00470695537885928</v>
       </c>
       <c r="D95">
-        <v>-0.04632342283372295</v>
+        <v>-0.09258202159885756</v>
       </c>
       <c r="E95">
-        <v>0.04554209607997411</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04606880194813429</v>
+      </c>
+      <c r="F95">
+        <v>-0.009859629386970331</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01446268152542856</v>
+        <v>0.09961376528829162</v>
       </c>
       <c r="C96">
-        <v>0.001061689955016607</v>
+        <v>0.9887339984850299</v>
       </c>
       <c r="D96">
-        <v>-0.001964931754517418</v>
+        <v>0.0356996282180469</v>
       </c>
       <c r="E96">
-        <v>0.001112731350193555</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05790489231583823</v>
+      </c>
+      <c r="F96">
+        <v>0.04187467016272853</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1807399221978011</v>
+        <v>0.1895234601153527</v>
       </c>
       <c r="C97">
-        <v>-0.03246932960466924</v>
+        <v>0.009318151314394139</v>
       </c>
       <c r="D97">
-        <v>-0.05416990008251477</v>
+        <v>0.01739866614230212</v>
       </c>
       <c r="E97">
-        <v>0.03648447087478224</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008058014147976925</v>
+      </c>
+      <c r="F97">
+        <v>-0.09646974537030104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2408587812465149</v>
+        <v>0.2058674673265051</v>
       </c>
       <c r="C98">
-        <v>-0.02391019522020601</v>
+        <v>-0.007329608329737575</v>
       </c>
       <c r="D98">
-        <v>0.09008179409389809</v>
+        <v>-0.008698949840355664</v>
       </c>
       <c r="E98">
-        <v>-0.0986893227874252</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09538971035832229</v>
+      </c>
+      <c r="F98">
+        <v>-0.09745883911297494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04758879293961071</v>
+        <v>0.05559476116252257</v>
       </c>
       <c r="C99">
-        <v>-0.01482565960469201</v>
+        <v>0.004307000856426847</v>
       </c>
       <c r="D99">
-        <v>-0.01449104707266704</v>
+        <v>-0.03704252202225047</v>
       </c>
       <c r="E99">
-        <v>0.04561714062679744</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02414077920985516</v>
+      </c>
+      <c r="F99">
+        <v>-0.000144120521824976</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1316401399019465</v>
+        <v>0.1238375346809595</v>
       </c>
       <c r="C100">
-        <v>0.5237183876183494</v>
+        <v>0.05198928210426626</v>
       </c>
       <c r="D100">
-        <v>0.7552262277342746</v>
+        <v>-0.3454273117506278</v>
       </c>
       <c r="E100">
-        <v>-0.2479034390092074</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8937611146984779</v>
+      </c>
+      <c r="F100">
+        <v>-0.08834042002218087</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.0292033321824534</v>
+        <v>0.02681505749533582</v>
       </c>
       <c r="C101">
-        <v>0.008084046202018871</v>
+        <v>-0.008386534996180211</v>
       </c>
       <c r="D101">
-        <v>0.003441639043989451</v>
+        <v>-0.03112176841707498</v>
       </c>
       <c r="E101">
-        <v>0.008126872917027241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01080145014949393</v>
+      </c>
+      <c r="F101">
+        <v>-0.01345993407231442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
